--- a/wgcpy/result/feats_seletor_result.xlsx
+++ b/wgcpy/result/feats_seletor_result.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -749,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -789,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -849,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -979,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>

--- a/wgcpy/result/feats_seletor_result.xlsx
+++ b/wgcpy/result/feats_seletor_result.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="模型CV-Importance评估结果" sheetId="1" r:id="rId1"/>
-    <sheet name="模型CV-95.00%Importance" sheetId="2" r:id="rId2"/>
+    <sheet name="模型CV-Result评估结果" sheetId="1" r:id="rId1"/>
+    <sheet name="模型CV-95.00%Importance结果" sheetId="2" r:id="rId2"/>
     <sheet name="特征IncreaseCV-Filter评估结果" sheetId="3" r:id="rId3"/>
     <sheet name="模型IncreaseCV-STEP验证结果" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -79,12 +79,12 @@
     <t>other.debtors.or.guarantors</t>
   </si>
   <si>
+    <t>housing</t>
+  </si>
+  <si>
     <t>present.employment.since</t>
   </si>
   <si>
-    <t>housing</t>
-  </si>
-  <si>
     <t>present.residence.since</t>
   </si>
   <si>
@@ -127,10 +127,10 @@
     <t>['other.debtors.or.guarantors']</t>
   </si>
   <si>
+    <t>['housing']</t>
+  </si>
+  <si>
     <t>['present.employment.since']</t>
-  </si>
-  <si>
-    <t>['housing']</t>
   </si>
   <si>
     <t>['present.residence.since']</t>
@@ -522,16 +522,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.88296875</v>
+        <v>0.9064665471923536</v>
       </c>
       <c r="D2">
-        <v>0.7710714285714285</v>
+        <v>0.8148809523809524</v>
       </c>
       <c r="E2">
-        <v>0.6035714285714285</v>
+        <v>0.6581989247311828</v>
       </c>
       <c r="F2">
-        <v>0.4619047619047619</v>
+        <v>0.5404761904761904</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -542,16 +542,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8665625</v>
+        <v>0.8712888291517323</v>
       </c>
       <c r="D3">
-        <v>0.7594047619047619</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="E3">
-        <v>0.5821428571428572</v>
+        <v>0.5866039426523297</v>
       </c>
       <c r="F3">
-        <v>0.4619047619047619</v>
+        <v>0.4547619047619048</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -562,16 +562,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.908891369047619</v>
+        <v>0.881892174432497</v>
       </c>
       <c r="D4">
-        <v>0.7570238095238095</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="E4">
-        <v>0.6541666666666667</v>
+        <v>0.6091845878136201</v>
       </c>
       <c r="F4">
-        <v>0.4142857142857143</v>
+        <v>0.430952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -582,16 +582,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8553645833333333</v>
+        <v>0.8822674418604651</v>
       </c>
       <c r="D5">
-        <v>0.8476190476190476</v>
+        <v>0.7798561151079136</v>
       </c>
       <c r="E5">
-        <v>0.5380952380952381</v>
+        <v>0.6021765056648778</v>
       </c>
       <c r="F5">
-        <v>0.5761904761904761</v>
+        <v>0.4546762589928058</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -602,16 +602,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8756770833333334</v>
+        <v>0.9128875968992248</v>
       </c>
       <c r="D6">
-        <v>0.7952380952380952</v>
+        <v>0.778537170263789</v>
       </c>
       <c r="E6">
-        <v>0.5875</v>
+        <v>0.651453488372093</v>
       </c>
       <c r="F6">
-        <v>0.4928571428571429</v>
+        <v>0.4364508393285372</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -622,16 +622,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8778928571428573</v>
+        <v>0.8909605179072546</v>
       </c>
       <c r="D7">
-        <v>0.7841619047619048</v>
+        <v>0.7794555873925503</v>
       </c>
       <c r="E7">
-        <v>0.593095238095238</v>
+        <v>0.6215234898468207</v>
       </c>
       <c r="F7">
-        <v>0.4814285714285715</v>
+        <v>0.4634635149023638</v>
       </c>
     </row>
   </sheetData>
@@ -669,19 +669,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>461.5580865651369</v>
+        <v>470.044426342845</v>
       </c>
       <c r="E2">
-        <v>0.2967466000370561</v>
+        <v>0.2773210524205907</v>
       </c>
       <c r="F2">
-        <v>0.2967466000370561</v>
+        <v>0.2773210524205907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -695,13 +695,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>278.1287545353174</v>
+        <v>298.3159275770187</v>
       </c>
       <c r="E3">
-        <v>0.178815548212151</v>
+        <v>0.1760031230093595</v>
       </c>
       <c r="F3">
-        <v>0.475562148249207</v>
+        <v>0.4533241754299502</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -715,13 +715,13 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>122.4664272725582</v>
+        <v>158.8893701702356</v>
       </c>
       <c r="E4">
-        <v>0.07873655986024718</v>
+        <v>0.09374298445976094</v>
       </c>
       <c r="F4">
-        <v>0.5542987081094541</v>
+        <v>0.5470671598897112</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -729,19 +729,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5">
-        <v>115.9826269030571</v>
+        <v>120.512333214283</v>
       </c>
       <c r="E5">
-        <v>0.07456797139657839</v>
+        <v>0.07110095387509024</v>
       </c>
       <c r="F5">
-        <v>0.6288666795060325</v>
+        <v>0.6181681137648014</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -749,19 +749,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <v>95.99869115352629</v>
+        <v>107.6107159018516</v>
       </c>
       <c r="E6">
-        <v>0.06171982690156183</v>
+        <v>0.06348914126654864</v>
       </c>
       <c r="F6">
-        <v>0.6905865064075943</v>
+        <v>0.68165725503135</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -769,19 +769,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7">
-        <v>91.12968950867652</v>
+        <v>96.36766749322413</v>
       </c>
       <c r="E7">
-        <v>0.05858943069414949</v>
+        <v>0.05685586610710223</v>
       </c>
       <c r="F7">
-        <v>0.7491759371017438</v>
+        <v>0.7385131211384522</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -789,19 +789,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>81.98343247175217</v>
+        <v>86.84567467570304</v>
       </c>
       <c r="E8">
-        <v>0.05270908592764246</v>
+        <v>0.05123799485641709</v>
       </c>
       <c r="F8">
-        <v>0.8018850230293862</v>
+        <v>0.7897511159948694</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -815,13 +815,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>67.44917414188386</v>
+        <v>60.0384877115488</v>
       </c>
       <c r="E9">
-        <v>0.04336466781648882</v>
+        <v>0.0354220487783492</v>
       </c>
       <c r="F9">
-        <v>0.8452496908458751</v>
+        <v>0.8251731647732186</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -835,13 +835,13 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>52.5064618229866</v>
+        <v>58.7194937467575</v>
       </c>
       <c r="E10">
-        <v>0.03375764498440412</v>
+        <v>0.03464385681615894</v>
       </c>
       <c r="F10">
-        <v>0.8790073358302792</v>
+        <v>0.8598170215893775</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -855,13 +855,13 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>42.82425847649574</v>
+        <v>51.07027816772461</v>
       </c>
       <c r="E11">
-        <v>0.02753272767156858</v>
+        <v>0.03013090358092126</v>
       </c>
       <c r="F11">
-        <v>0.9065400635018478</v>
+        <v>0.8899479251702987</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -869,19 +869,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12">
-        <v>28.86246072053909</v>
+        <v>44.87967375516891</v>
       </c>
       <c r="E12">
-        <v>0.01855635799008875</v>
+        <v>0.02647851492445564</v>
       </c>
       <c r="F12">
-        <v>0.9250964214919365</v>
+        <v>0.9164264400947544</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -895,13 +895,13 @@
         <v>22</v>
       </c>
       <c r="D13">
-        <v>28.63291358351707</v>
+        <v>38.33267992138862</v>
       </c>
       <c r="E13">
-        <v>0.01840877671171392</v>
+        <v>0.02261586042113263</v>
       </c>
       <c r="F13">
-        <v>0.9435051982036504</v>
+        <v>0.939042300515887</v>
       </c>
     </row>
   </sheetData>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>461.5580865651369</v>
+        <v>470.044426342845</v>
       </c>
       <c r="E2">
-        <v>0.2967466000370561</v>
+        <v>0.2773210524205907</v>
       </c>
       <c r="F2">
-        <v>0.2967466000370561</v>
+        <v>0.2773210524205907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -965,13 +965,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>278.1287545353174</v>
+        <v>298.3159275770187</v>
       </c>
       <c r="E3">
-        <v>0.178815548212151</v>
+        <v>0.1760031230093595</v>
       </c>
       <c r="F3">
-        <v>0.475562148249207</v>
+        <v>0.4533241754299502</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -979,19 +979,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4">
-        <v>115.9826269030571</v>
+        <v>120.512333214283</v>
       </c>
       <c r="E4">
-        <v>0.07456797139657839</v>
+        <v>0.07110095387509024</v>
       </c>
       <c r="F4">
-        <v>0.6288666795060325</v>
+        <v>0.6181681137648014</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -999,19 +999,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>95.99869115352629</v>
+        <v>107.6107159018516</v>
       </c>
       <c r="E5">
-        <v>0.06171982690156183</v>
+        <v>0.06348914126654864</v>
       </c>
       <c r="F5">
-        <v>0.6905865064075943</v>
+        <v>0.68165725503135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1019,19 +1019,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>91.12968950867652</v>
+        <v>96.36766749322413</v>
       </c>
       <c r="E6">
-        <v>0.05858943069414949</v>
+        <v>0.05685586610710223</v>
       </c>
       <c r="F6">
-        <v>0.7491759371017438</v>
+        <v>0.7385131211384522</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1039,19 +1039,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>81.98343247175217</v>
+        <v>86.84567467570304</v>
       </c>
       <c r="E7">
-        <v>0.05270908592764246</v>
+        <v>0.05123799485641709</v>
       </c>
       <c r="F7">
-        <v>0.8018850230293862</v>
+        <v>0.7897511159948694</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1065,13 +1065,13 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>52.5064618229866</v>
+        <v>58.7194937467575</v>
       </c>
       <c r="E8">
-        <v>0.03375764498440412</v>
+        <v>0.03464385681615894</v>
       </c>
       <c r="F8">
-        <v>0.8790073358302792</v>
+        <v>0.8598170215893775</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7066190476190476</v>
+        <v>0.7069609455292909</v>
       </c>
       <c r="D2">
-        <v>0.2066190476190476</v>
+        <v>0.2069609455292909</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1126,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.7499761904761904</v>
+        <v>0.7512683281945872</v>
       </c>
       <c r="D3">
-        <v>0.04335714285714276</v>
+        <v>0.04430738266529632</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1143,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.744452380952381</v>
+        <v>0.747498287084618</v>
       </c>
       <c r="D4">
-        <v>-0.005523809523809375</v>
+        <v>-0.003770041109969258</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1160,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.7574761904761904</v>
+        <v>0.7623341897910244</v>
       </c>
       <c r="D5">
-        <v>0.007500000000000062</v>
+        <v>0.01106586159643719</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1177,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.7591666666666667</v>
+        <v>0.7675407673860912</v>
       </c>
       <c r="D6">
-        <v>0.001690476190476242</v>
+        <v>0.005206577595066819</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1194,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.7651785714285714</v>
+        <v>0.7747984755053101</v>
       </c>
       <c r="D7">
-        <v>0.006011904761904718</v>
+        <v>0.007257708119218886</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1211,10 +1211,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.7746547619047619</v>
+        <v>0.777608941418294</v>
       </c>
       <c r="D8">
-        <v>0.009476190476190527</v>
+        <v>0.002810465912983839</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1228,10 +1228,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.7725119047619048</v>
+        <v>0.7777662726961289</v>
       </c>
       <c r="D9">
-        <v>-0.002142857142857113</v>
+        <v>0.0001573312778349045</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -1245,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.7867142857142857</v>
+        <v>0.7924657416923603</v>
       </c>
       <c r="D10">
-        <v>0.0120595238095238</v>
+        <v>0.01485680027406633</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -1262,10 +1262,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.7860476190476191</v>
+        <v>0.7912435765673176</v>
       </c>
       <c r="D11">
-        <v>-0.0006666666666665932</v>
+        <v>-0.001222165125042696</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -1279,10 +1279,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.7873809523809523</v>
+        <v>0.7911047447756081</v>
       </c>
       <c r="D12">
-        <v>0.0006666666666665932</v>
+        <v>-0.001360996916752177</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1296,10 +1296,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.7830119047619049</v>
+        <v>0.7854033059266872</v>
       </c>
       <c r="D13">
-        <v>-0.003702380952380846</v>
+        <v>-0.007062435765673114</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
